--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,22 @@
   </si>
   <si>
     <t>intro.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织成员1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织成员2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -406,6 +422,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>member2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,6 +462,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,38 @@
   </si>
   <si>
     <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录02参加活动报名的确认信息_前提是登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,6 +518,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,22 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-activity.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加过的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,6 +566,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,59 +64,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-info2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录02参加活动报名的确认信息_前提是登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-activity.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加过的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>详细页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录-个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-info2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录02参加活动报名的确认信息_前提是登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-change.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-activity.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加过的活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-code.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码</t>
+    <t>show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章详细页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,58 +536,66 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
